--- a/Spring/Planning.xlsx
+++ b/Spring/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Toumi\Documents\Toumi\abtoumi\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8878EFF3-E23B-4B05-92D9-26E5D6643F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42654E4-62FF-4737-BFC7-4A746241A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Data	</t>
   </si>
@@ -48,11 +48,23 @@
     <t>Completato con successo</t>
   </si>
   <si>
-    <t>Iniziare la revisione del documento ufficiale di SPRING          Costruzione di un servizio web RESTful (Building a RESTful Web Service)                                                                                            - https://spring.io/guides/gs/rest-service
+    <t xml:space="preserve"> - Revisione Documento Ufficiale SPRING                                                                                         - Creazione Prima Applicazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://spring.io/guides/gs/relational-data-access
+ - https://spring.io/guides/gs/accessing-data-jpa
+ - https://spring.io/guides/gs/accessing-data-mongodb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ore </t>
+  </si>
+  <si>
+    <t>Iniziare la revisione del documento ufficiale di SPRING               Costruzione di un servizio web RESTful (Building a RESTful Web Service)                                                                                            - https://spring.io/guides/gs/rest-service
 - https://spring.io/guides/gs/spring-boot</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Revisione Documento Ufficiale SPRING                                                                                         - Creazione Prima Applicazione</t>
+    <t>Accesso ai dati relazionali: descrive come utilizzare JdbcTemplate per interagire con i database relazionali in Spring.
+Accesso ai dati con JPA: spiega come integrare JPA per gestire entità e operazioni CRUD in un'applicazione Spring.</t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -127,7 +139,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -424,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,10 +476,10 @@
         <v>45628</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -471,9 +488,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>45629</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -506,12 +532,12 @@
       <c r="A9" s="1">
         <v>45635</v>
       </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45636</v>
       </c>
-      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">

--- a/Spring/Planning.xlsx
+++ b/Spring/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Toumi\Documents\Toumi\abtoumi\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42654E4-62FF-4737-BFC7-4A746241A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B489A-8965-4795-A5DD-876E50EF6451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Data	</t>
   </si>
@@ -49,22 +49,31 @@
   </si>
   <si>
     <t xml:space="preserve"> - Revisione Documento Ufficiale SPRING                                                                                         - Creazione Prima Applicazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ore </t>
+  </si>
+  <si>
+    <t>Iniziare la revisione del documento ufficiale di SPRING               Costruzione di un servizio web RESTful (Building a RESTful Web Service)                                                                                            - https://spring.io/guides/gs/rest-service
+- https://spring.io/guides/gs/spring-boot</t>
+  </si>
+  <si>
+    <t>Accesso ai dati relazionali: descrive come utilizzare JdbcTemplate per interagire con i database relazionali in Spring.
+Accesso ai dati con JPA: spiega come integrare JPA per gestire entità e operazioni CRUD in un'applicazione Spring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://spring.io/guides/gs/accessing-data-mongodb</t>
   </si>
   <si>
     <t xml:space="preserve"> - https://spring.io/guides/gs/relational-data-access
  - https://spring.io/guides/gs/accessing-data-jpa
- - https://spring.io/guides/gs/accessing-data-mongodb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 ore </t>
-  </si>
-  <si>
-    <t>Iniziare la revisione del documento ufficiale di SPRING               Costruzione di un servizio web RESTful (Building a RESTful Web Service)                                                                                            - https://spring.io/guides/gs/rest-service
-- https://spring.io/guides/gs/spring-boot</t>
-  </si>
-  <si>
-    <t>Accesso ai dati relazionali: descrive come utilizzare JdbcTemplate per interagire con i database relazionali in Spring.
-Accesso ai dati con JPA: spiega come integrare JPA per gestire entità e operazioni CRUD in un'applicazione Spring.</t>
+ </t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho sviluppato una piccola applicazione seguendo il tutorial "Accessing Data with MongoDB" di Spring. L'obiettivo di questo progetto era imparare a connettere un'applicazione Spring Boot a un database MongoDB, eseguire operazioni CRUD </t>
   </si>
 </sst>
 </file>
@@ -123,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -131,9 +140,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +460,7 @@
     <col min="5" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45628</v>
       </c>
@@ -479,96 +485,113 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>45629</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>45630</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45631</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45632</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45633</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45634</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45635</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45636</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45637</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45638</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45639</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45640</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45641</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spring/Planning.xlsx
+++ b/Spring/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Toumi\Documents\Toumi\abtoumi\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B489A-8965-4795-A5DD-876E50EF6451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D5270A-2BC2-4E52-8E30-716ADCF6B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Data	</t>
   </si>
@@ -74,13 +74,135 @@
   </si>
   <si>
     <t xml:space="preserve">Ho sviluppato una piccola applicazione seguendo il tutorial "Accessing Data with MongoDB" di Spring. L'obiettivo di questo progetto era imparare a connettere un'applicazione Spring Boot a un database MongoDB, eseguire operazioni CRUD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://spring.io/guides/gs/accessing-data-jpa</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ho utilizzato </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JpaRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per gestire facilmente le operazioni di database come la creazione, la lettura, l'aggiornamento e la cancellazione (CRUD) dei dati.  Il progetto è stato sviluppato utilizzando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XAMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> come server, che mi ha permesso di configurare un ambiente di sviluppo locale con Apache, MySQL .
+Per semplificare la scrittura del codice, ho utilizzato </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lombok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ad esempio, non è necessario scrivere manualmente metodi come getter, setter, toString, hashCode o equals, poiché Lombok li genera automaticamente durante la compilazione 
+Inoltre, ho utilizzato </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jakarta.validation.constraints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per applicare le restrizioni sui dati nei miei modelli. Queste annotazioni, come @NotNull, @Size, e @NotBlank, mi hanno permesso di garantire che i dati forniti dagli utenti fossero validi prima di essere salvati nel database.  Per quanto riguarda i test, sono stati eseguiti con successo utilizzando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Postman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'implementazione dei servizi, dei controller e dei DAO (Data Access Object) è già stata completata con successo. 
+manca ancora la parte grafica del progetto, ovvero la realizzazione dell'interfaccia utente in HTML. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +212,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -150,6 +280,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,9 +664,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>45631</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G5" s="5"/>
     </row>

--- a/Spring/Planning.xlsx
+++ b/Spring/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Toumi\Documents\Toumi\abtoumi\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D5270A-2BC2-4E52-8E30-716ADCF6B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5AEBC-357D-4425-8EE8-3A3F4600627E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicembre" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">Data	</t>
   </si>
@@ -196,13 +196,158 @@
   <si>
     <t xml:space="preserve"> l'implementazione dei servizi, dei controller e dei DAO (Data Access Object) è già stata completata con successo. 
 manca ancora la parte grafica del progetto, ovvero la realizzazione dell'interfaccia utente in HTML. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hp studiato come creare e configurare test per applicazioni web Spring utilizzando Spring Boot. Questo include l'uso di strumenti come </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MockMvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per simulare richieste HTTP e verificare risposte senza avviare un vero server web.
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spring.io/guides/gs/testing-web      </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oggi ho lavorato su alcuni test per un'app web  MediaTEch sviluppata con Spring Boot. Ho testato vari metodi dei controller (ClientWebController) e dei servizi (ClientServiceImpl) usando JUnit e Mockito.                                                                                                                Test che ho fatto:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lista dei clienti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Ho verificato che il metodo restituisca correttamente la lista dei clienti e la vista giusta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Salvataggio di un cliente:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ho controllato che un cliente venisse salvato correttamente e che la risposta fosse quella giusta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aggiornamento di un cliente:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ho testato che le informazioni di un cliente vengano aggiornate correttamente nel database.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eliminazione di un cliente:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ho testato la rimozione di un cliente, sia nel caso in cui il cliente esista che nel caso in cui non ci sia.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ricerca di un cliente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Ho verificato che un cliente venga recuperato correttamente tramite ID o numero di telefono.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +371,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -259,10 +418,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -285,10 +445,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +839,7 @@
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -682,28 +847,54 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45632</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45633</v>
       </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45634</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45635</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -714,6 +905,7 @@
       <c r="A11" s="1">
         <v>45637</v>
       </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -724,6 +916,7 @@
       <c r="A13" s="1">
         <v>45639</v>
       </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -742,9 +935,13 @@
       <c r="B20" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A9781B5A-104F-4F22-8392-D0025A49EE58}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{9455E490-0D5E-4F23-B7E0-79F396D9CFE0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>